--- a/scores.xlsx
+++ b/scores.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
   <si>
     <t xml:space="preserve">t1</t>
   </si>
@@ -63,6 +63,9 @@
     <t xml:space="preserve">44 8</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">20 38</t>
   </si>
   <si>
@@ -75,7 +78,7 @@
     <t xml:space="preserve">30 22</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">46 12</t>
   </si>
   <si>
     <t xml:space="preserve">62 24</t>
@@ -90,12 +93,18 @@
     <t xml:space="preserve">16 28</t>
   </si>
   <si>
+    <t xml:space="preserve">36 22</t>
+  </si>
+  <si>
     <t xml:space="preserve">44 18</t>
   </si>
   <si>
     <t xml:space="preserve">40 0</t>
   </si>
   <si>
+    <t xml:space="preserve">36 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 26</t>
   </si>
   <si>
@@ -120,6 +129,9 @@
     <t xml:space="preserve">24 26</t>
   </si>
   <si>
+    <t xml:space="preserve">34 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">50 16</t>
   </si>
   <si>
@@ -183,6 +195,9 @@
     <t xml:space="preserve">27 26</t>
   </si>
   <si>
+    <t xml:space="preserve">31 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">37 18</t>
   </si>
   <si>
@@ -460,6 +475,9 @@
   </si>
   <si>
     <t xml:space="preserve">22 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 20</t>
   </si>
   <si>
     <t xml:space="preserve">38 14</t>
@@ -586,10 +604,10 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -636,19 +654,25 @@
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,13 +680,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,13 +694,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,7 +709,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -694,24 +718,30 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,29 +749,32 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>28</v>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,13 +782,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -777,10 +810,10 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.52"/>
@@ -803,275 +836,296 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1093,267 +1147,285 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>17</v>
+        <v>150</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="league-1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="226">
   <si>
     <t xml:space="preserve">t1</t>
   </si>
@@ -57,24 +57,45 @@
     <t xml:space="preserve">Workington</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">40 18</t>
   </si>
   <si>
     <t xml:space="preserve">44 8</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">40 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 24</t>
   </si>
   <si>
     <t xml:space="preserve">20 38</t>
   </si>
   <si>
+    <t xml:space="preserve">16 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">38 30</t>
   </si>
   <si>
     <t xml:space="preserve">26 44</t>
   </si>
   <si>
+    <t xml:space="preserve">12 30</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 22</t>
   </si>
   <si>
@@ -87,6 +108,12 @@
     <t xml:space="preserve">6 29</t>
   </si>
   <si>
+    <t xml:space="preserve">18 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 34</t>
+  </si>
+  <si>
     <t xml:space="preserve">36 43</t>
   </si>
   <si>
@@ -96,24 +123,54 @@
     <t xml:space="preserve">36 22</t>
   </si>
   <si>
+    <t xml:space="preserve">40 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">44 18</t>
   </si>
   <si>
     <t xml:space="preserve">40 0</t>
   </si>
   <si>
+    <t xml:space="preserve">34 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">36 12</t>
   </si>
   <si>
+    <t xml:space="preserve">0 68</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 26</t>
   </si>
   <si>
+    <t xml:space="preserve">34 28</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 44</t>
   </si>
   <si>
+    <t xml:space="preserve">38 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">40 16</t>
   </si>
   <si>
+    <t xml:space="preserve">14 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 62</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 44</t>
   </si>
   <si>
@@ -123,6 +180,12 @@
     <t xml:space="preserve">10 36</t>
   </si>
   <si>
+    <t xml:space="preserve">12 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 30</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 52 </t>
   </si>
   <si>
@@ -135,6 +198,9 @@
     <t xml:space="preserve">50 16</t>
   </si>
   <si>
+    <t xml:space="preserve">66 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Batley</t>
   </si>
   <si>
@@ -177,6 +243,9 @@
     <t xml:space="preserve">York</t>
   </si>
   <si>
+    <t xml:space="preserve">12 22 </t>
+  </si>
+  <si>
     <t xml:space="preserve">6 40</t>
   </si>
   <si>
@@ -186,9 +255,15 @@
     <t xml:space="preserve">26 12</t>
   </si>
   <si>
+    <t xml:space="preserve">12 32</t>
+  </si>
+  <si>
     <t xml:space="preserve">48 16</t>
   </si>
   <si>
+    <t xml:space="preserve">30 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">35 14</t>
   </si>
   <si>
@@ -198,18 +273,39 @@
     <t xml:space="preserve">31 12</t>
   </si>
   <si>
+    <t xml:space="preserve">12 25</t>
+  </si>
+  <si>
     <t xml:space="preserve">37 18</t>
   </si>
   <si>
+    <t xml:space="preserve">10 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 68</t>
+  </si>
+  <si>
     <t xml:space="preserve">0 36</t>
   </si>
   <si>
+    <t xml:space="preserve">12 56</t>
+  </si>
+  <si>
     <t xml:space="preserve">17 8</t>
   </si>
   <si>
     <t xml:space="preserve">28 18</t>
   </si>
   <si>
+    <t xml:space="preserve">44 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">68 0</t>
   </si>
   <si>
@@ -228,6 +324,15 @@
     <t xml:space="preserve">34 44</t>
   </si>
   <si>
+    <t xml:space="preserve">14 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 33</t>
   </si>
   <si>
@@ -240,18 +345,36 @@
     <t xml:space="preserve">38 24</t>
   </si>
   <si>
+    <t xml:space="preserve">50 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">0 32</t>
   </si>
   <si>
+    <t xml:space="preserve">40 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 16</t>
   </si>
   <si>
     <t xml:space="preserve">30 30</t>
   </si>
   <si>
+    <t xml:space="preserve">22 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 12</t>
   </si>
   <si>
+    <t xml:space="preserve">28 32</t>
+  </si>
+  <si>
     <t xml:space="preserve">28 20</t>
   </si>
   <si>
@@ -261,9 +384,6 @@
     <t xml:space="preserve">18 40</t>
   </si>
   <si>
-    <t xml:space="preserve">18 30</t>
-  </si>
-  <si>
     <t xml:space="preserve">50 12</t>
   </si>
   <si>
@@ -273,6 +393,9 @@
     <t xml:space="preserve">20 20</t>
   </si>
   <si>
+    <t xml:space="preserve">6 54</t>
+  </si>
+  <si>
     <t xml:space="preserve">25 25</t>
   </si>
   <si>
@@ -285,6 +408,15 @@
     <t xml:space="preserve">6 36</t>
   </si>
   <si>
+    <t xml:space="preserve">4 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 30</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 64</t>
   </si>
   <si>
@@ -297,7 +429,7 @@
     <t xml:space="preserve">70 0</t>
   </si>
   <si>
-    <t xml:space="preserve">22 30</t>
+    <t xml:space="preserve">20 24</t>
   </si>
   <si>
     <t xml:space="preserve">29 20</t>
@@ -306,9 +438,21 @@
     <t xml:space="preserve">0 66</t>
   </si>
   <si>
+    <t xml:space="preserve">37 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">14 22</t>
   </si>
   <si>
+    <t xml:space="preserve">10 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">46 10</t>
   </si>
   <si>
@@ -318,9 +462,15 @@
     <t xml:space="preserve">14 35</t>
   </si>
   <si>
+    <t xml:space="preserve">20 22 </t>
+  </si>
+  <si>
     <t xml:space="preserve">12 16</t>
   </si>
   <si>
+    <t xml:space="preserve">26 28</t>
+  </si>
+  <si>
     <t xml:space="preserve">34 6</t>
   </si>
   <si>
@@ -366,6 +516,9 @@
     <t xml:space="preserve">Wigan</t>
   </si>
   <si>
+    <t xml:space="preserve">6 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 26</t>
   </si>
   <si>
@@ -375,12 +528,21 @@
     <t xml:space="preserve">52 16</t>
   </si>
   <si>
+    <t xml:space="preserve">18 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 24</t>
+  </si>
+  <si>
     <t xml:space="preserve">21 12</t>
   </si>
   <si>
     <t xml:space="preserve">29 28</t>
   </si>
   <si>
+    <t xml:space="preserve">27 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">42 6</t>
   </si>
   <si>
@@ -399,9 +561,18 @@
     <t xml:space="preserve">14 13</t>
   </si>
   <si>
+    <t xml:space="preserve">8 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 18</t>
   </si>
   <si>
+    <t xml:space="preserve">12 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 50</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 27</t>
   </si>
   <si>
@@ -414,6 +585,9 @@
     <t xml:space="preserve">14 14</t>
   </si>
   <si>
+    <t xml:space="preserve">17 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">25 24</t>
   </si>
   <si>
@@ -426,6 +600,9 @@
     <t xml:space="preserve">12 18</t>
   </si>
   <si>
+    <t xml:space="preserve">48 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 13</t>
   </si>
   <si>
@@ -435,6 +612,9 @@
     <t xml:space="preserve">6 44</t>
   </si>
   <si>
+    <t xml:space="preserve">22 64</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 22</t>
   </si>
   <si>
@@ -450,6 +630,9 @@
     <t xml:space="preserve">34 8</t>
   </si>
   <si>
+    <t xml:space="preserve">24 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 62</t>
   </si>
   <si>
@@ -462,9 +645,15 @@
     <t xml:space="preserve">28 0</t>
   </si>
   <si>
+    <t xml:space="preserve">24 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">29 6</t>
   </si>
   <si>
+    <t xml:space="preserve">2 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 38</t>
   </si>
   <si>
@@ -477,7 +666,10 @@
     <t xml:space="preserve">22 28</t>
   </si>
   <si>
-    <t xml:space="preserve">30 20</t>
+    <t xml:space="preserve">14 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 6</t>
   </si>
   <si>
     <t xml:space="preserve">38 14</t>
@@ -492,10 +684,22 @@
     <t xml:space="preserve">44 12</t>
   </si>
   <si>
+    <t xml:space="preserve">38 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 22</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 12</t>
   </si>
   <si>
     <t xml:space="preserve">16 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 40</t>
   </si>
 </sst>
 </file>
@@ -603,11 +807,11 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -648,14 +852,23 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,30 +876,42 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,13 +919,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,8 +939,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -717,14 +951,20 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,35 +972,56 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,13 +1029,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,13 +1052,19 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -810,10 +1086,10 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.52"/>
@@ -836,296 +1112,398 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>121</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>129</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>136</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>93</v>
+        <v>137</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>139</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1144,288 +1522,413 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>152</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>153</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>177</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>124</v>
+        <v>178</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>155</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>132</v>
+        <v>184</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>188</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>142</v>
+        <v>192</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>158</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>151</v>
+        <v>201</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>13</v>
+        <v>149</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>99</v>
+        <v>160</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="league-1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="championship" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="super-league" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="NRL" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="461">
   <si>
     <t xml:space="preserve">t1</t>
   </si>
@@ -57,12 +58,15 @@
     <t xml:space="preserve">Workington</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">40 12</t>
   </si>
   <si>
     <t xml:space="preserve">31 6</t>
   </si>
   <si>
+    <t xml:space="preserve">38 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">40 18</t>
   </si>
   <si>
@@ -72,6 +76,12 @@
     <t xml:space="preserve">40 4</t>
   </si>
   <si>
+    <t xml:space="preserve">38 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 24</t>
   </si>
   <si>
@@ -87,15 +97,33 @@
     <t xml:space="preserve">24 18</t>
   </si>
   <si>
+    <t xml:space="preserve">16 32</t>
+  </si>
+  <si>
     <t xml:space="preserve">38 30</t>
   </si>
   <si>
     <t xml:space="preserve">26 44</t>
   </si>
   <si>
+    <t xml:space="preserve">50 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 30</t>
   </si>
   <si>
+    <t xml:space="preserve">26 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 28</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 22</t>
   </si>
   <si>
@@ -105,9 +133,18 @@
     <t xml:space="preserve">62 24</t>
   </si>
   <si>
+    <t xml:space="preserve">22 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 10 </t>
+  </si>
+  <si>
     <t xml:space="preserve">6 29</t>
   </si>
   <si>
+    <t xml:space="preserve">32 30</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 18</t>
   </si>
   <si>
@@ -117,13 +154,19 @@
     <t xml:space="preserve">36 43</t>
   </si>
   <si>
+    <t xml:space="preserve">82 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 28</t>
   </si>
   <si>
+    <t xml:space="preserve">20 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">36 22</t>
   </si>
   <si>
-    <t xml:space="preserve">40 12</t>
+    <t xml:space="preserve">46 18</t>
   </si>
   <si>
     <t xml:space="preserve">44 18</t>
@@ -132,12 +175,21 @@
     <t xml:space="preserve">40 0</t>
   </si>
   <si>
+    <t xml:space="preserve">34 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">34 22</t>
   </si>
   <si>
     <t xml:space="preserve">70 12</t>
   </si>
   <si>
+    <t xml:space="preserve">18 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">36 12</t>
   </si>
   <si>
@@ -150,9 +202,36 @@
     <t xml:space="preserve">34 28</t>
   </si>
   <si>
+    <t xml:space="preserve">36 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 44</t>
   </si>
   <si>
+    <t xml:space="preserve">34 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 42</t>
+  </si>
+  <si>
     <t xml:space="preserve">38 28</t>
   </si>
   <si>
@@ -165,15 +244,30 @@
     <t xml:space="preserve">14 24</t>
   </si>
   <si>
+    <t xml:space="preserve">12 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 16</t>
   </si>
   <si>
     <t xml:space="preserve">10 62</t>
   </si>
   <si>
+    <t xml:space="preserve">14 34</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 44</t>
   </si>
   <si>
+    <t xml:space="preserve">34 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 35</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 60</t>
   </si>
   <si>
@@ -183,24 +277,39 @@
     <t xml:space="preserve">12 38</t>
   </si>
   <si>
+    <t xml:space="preserve">12 42</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 30</t>
   </si>
   <si>
     <t xml:space="preserve">10 52 </t>
   </si>
   <si>
+    <t xml:space="preserve">22 36</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 26</t>
   </si>
   <si>
+    <t xml:space="preserve">14 32</t>
+  </si>
+  <si>
     <t xml:space="preserve">34 20</t>
   </si>
   <si>
+    <t xml:space="preserve">18 40</t>
+  </si>
+  <si>
     <t xml:space="preserve">50 16</t>
   </si>
   <si>
     <t xml:space="preserve">66 0</t>
   </si>
   <si>
+    <t xml:space="preserve">18 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Batley</t>
   </si>
   <si>
@@ -243,21 +352,36 @@
     <t xml:space="preserve">York</t>
   </si>
   <si>
+    <t xml:space="preserve">24 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 28</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 22 </t>
   </si>
   <si>
     <t xml:space="preserve">6 40</t>
   </si>
   <si>
+    <t xml:space="preserve">42 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">48 10</t>
   </si>
   <si>
+    <t xml:space="preserve">56 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">26 12</t>
   </si>
   <si>
     <t xml:space="preserve">12 32</t>
   </si>
   <si>
+    <t xml:space="preserve">14 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">48 16</t>
   </si>
   <si>
@@ -267,12 +391,21 @@
     <t xml:space="preserve">35 14</t>
   </si>
   <si>
+    <t xml:space="preserve">30 36</t>
+  </si>
+  <si>
     <t xml:space="preserve">27 26</t>
   </si>
   <si>
     <t xml:space="preserve">31 12</t>
   </si>
   <si>
+    <t xml:space="preserve">30 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 60</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 25</t>
   </si>
   <si>
@@ -288,16 +421,25 @@
     <t xml:space="preserve">0 36</t>
   </si>
   <si>
+    <t xml:space="preserve">22 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 56</t>
   </si>
   <si>
     <t xml:space="preserve">17 8</t>
   </si>
   <si>
+    <t xml:space="preserve">23 22</t>
+  </si>
+  <si>
     <t xml:space="preserve">28 18</t>
   </si>
   <si>
-    <t xml:space="preserve">44 0</t>
+    <t xml:space="preserve">54 22</t>
   </si>
   <si>
     <t xml:space="preserve">63 14</t>
@@ -309,18 +451,45 @@
     <t xml:space="preserve">68 0</t>
   </si>
   <si>
+    <t xml:space="preserve">78 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 23</t>
+  </si>
+  <si>
     <t xml:space="preserve">48 14</t>
   </si>
   <si>
     <t xml:space="preserve">20 30</t>
   </si>
   <si>
+    <t xml:space="preserve">64 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 21</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 16</t>
   </si>
   <si>
     <t xml:space="preserve">47 14</t>
   </si>
   <si>
+    <t xml:space="preserve">14 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">34 44</t>
   </si>
   <si>
@@ -333,21 +502,30 @@
     <t xml:space="preserve">30 6</t>
   </si>
   <si>
+    <t xml:space="preserve">24 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 33</t>
   </si>
   <si>
     <t xml:space="preserve">30 10</t>
   </si>
   <si>
+    <t xml:space="preserve">28 48</t>
+  </si>
+  <si>
     <t xml:space="preserve">50 30</t>
   </si>
   <si>
-    <t xml:space="preserve">38 24</t>
+    <t xml:space="preserve">6 66</t>
   </si>
   <si>
     <t xml:space="preserve">50 20</t>
   </si>
   <si>
+    <t xml:space="preserve">12 36</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 12</t>
   </si>
   <si>
@@ -360,37 +538,58 @@
     <t xml:space="preserve">24 16</t>
   </si>
   <si>
+    <t xml:space="preserve">12 82</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 30</t>
   </si>
   <si>
+    <t xml:space="preserve">16 29</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 54</t>
   </si>
   <si>
     <t xml:space="preserve">4 18</t>
   </si>
   <si>
+    <t xml:space="preserve">10 48</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 12</t>
   </si>
   <si>
+    <t xml:space="preserve">24 38</t>
+  </si>
+  <si>
     <t xml:space="preserve">28 32</t>
   </si>
   <si>
     <t xml:space="preserve">28 20</t>
   </si>
   <si>
+    <t xml:space="preserve">6 34</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 36</t>
   </si>
   <si>
-    <t xml:space="preserve">18 40</t>
-  </si>
-  <si>
     <t xml:space="preserve">50 12</t>
   </si>
   <si>
+    <t xml:space="preserve">20 24</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 50</t>
   </si>
   <si>
-    <t xml:space="preserve">20 20</t>
+    <t xml:space="preserve">28 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 34</t>
   </si>
   <si>
     <t xml:space="preserve">6 54</t>
@@ -399,6 +598,9 @@
     <t xml:space="preserve">25 25</t>
   </si>
   <si>
+    <t xml:space="preserve">6 38</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 23</t>
   </si>
   <si>
@@ -411,15 +613,27 @@
     <t xml:space="preserve">4 34</t>
   </si>
   <si>
-    <t xml:space="preserve">30 36</t>
+    <t xml:space="preserve">32 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 22</t>
   </si>
   <si>
     <t xml:space="preserve">22 30</t>
   </si>
   <si>
+    <t xml:space="preserve">16 26</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 64</t>
   </si>
   <si>
+    <t xml:space="preserve">51 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 0</t>
   </si>
   <si>
@@ -429,27 +643,45 @@
     <t xml:space="preserve">70 0</t>
   </si>
   <si>
-    <t xml:space="preserve">20 24</t>
+    <t xml:space="preserve">20 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 18</t>
   </si>
   <si>
     <t xml:space="preserve">29 20</t>
   </si>
   <si>
+    <t xml:space="preserve">28 24</t>
+  </si>
+  <si>
     <t xml:space="preserve">0 66</t>
   </si>
   <si>
     <t xml:space="preserve">37 12</t>
   </si>
   <si>
+    <t xml:space="preserve">10 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">14 22</t>
   </si>
   <si>
     <t xml:space="preserve">10 32</t>
   </si>
   <si>
+    <t xml:space="preserve">25 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 24</t>
   </si>
   <si>
+    <t xml:space="preserve">62 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 20</t>
   </si>
   <si>
@@ -465,21 +697,21 @@
     <t xml:space="preserve">20 22 </t>
   </si>
   <si>
+    <t xml:space="preserve">18 36</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 16</t>
   </si>
   <si>
-    <t xml:space="preserve">26 28</t>
-  </si>
-  <si>
     <t xml:space="preserve">34 6</t>
   </si>
   <si>
-    <t xml:space="preserve">14 20</t>
-  </si>
-  <si>
     <t xml:space="preserve">6 21</t>
   </si>
   <si>
+    <t xml:space="preserve">30 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Castleford</t>
   </si>
   <si>
@@ -522,9 +754,6 @@
     <t xml:space="preserve">22 26</t>
   </si>
   <si>
-    <t xml:space="preserve">6 60</t>
-  </si>
-  <si>
     <t xml:space="preserve">52 16</t>
   </si>
   <si>
@@ -534,60 +763,117 @@
     <t xml:space="preserve">0 24</t>
   </si>
   <si>
+    <t xml:space="preserve">23 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">21 12</t>
   </si>
   <si>
+    <t xml:space="preserve">0 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">29 28</t>
   </si>
   <si>
     <t xml:space="preserve">27 18</t>
   </si>
   <si>
+    <t xml:space="preserve">64 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">42 6</t>
   </si>
   <si>
     <t xml:space="preserve">20 6</t>
   </si>
   <si>
+    <t xml:space="preserve">40 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 24</t>
   </si>
   <si>
     <t xml:space="preserve">48 0</t>
   </si>
   <si>
+    <t xml:space="preserve">28 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 20</t>
   </si>
   <si>
+    <t xml:space="preserve">40 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 28</t>
+  </si>
+  <si>
     <t xml:space="preserve">14 13</t>
   </si>
   <si>
+    <t xml:space="preserve">42 24</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 9</t>
   </si>
   <si>
     <t xml:space="preserve">10 18</t>
   </si>
   <si>
-    <t xml:space="preserve">12 14</t>
+    <t xml:space="preserve">22 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 26</t>
   </si>
   <si>
     <t xml:space="preserve">12 50</t>
   </si>
   <si>
+    <t xml:space="preserve">18 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 23</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 27</t>
   </si>
   <si>
     <t xml:space="preserve">22 10</t>
   </si>
   <si>
+    <t xml:space="preserve">12 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 42</t>
+  </si>
+  <si>
     <t xml:space="preserve">20 14</t>
   </si>
   <si>
     <t xml:space="preserve">14 14</t>
   </si>
   <si>
+    <t xml:space="preserve">0 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">17 10</t>
   </si>
   <si>
+    <t xml:space="preserve">26 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 23</t>
+  </si>
+  <si>
     <t xml:space="preserve">25 24</t>
   </si>
   <si>
@@ -597,15 +883,30 @@
     <t xml:space="preserve">0 25</t>
   </si>
   <si>
+    <t xml:space="preserve">18 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 18</t>
   </si>
   <si>
     <t xml:space="preserve">48 18</t>
   </si>
   <si>
+    <t xml:space="preserve">38 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 13</t>
   </si>
   <si>
+    <t xml:space="preserve">26 27</t>
+  </si>
+  <si>
     <t xml:space="preserve">6 19</t>
   </si>
   <si>
@@ -615,7 +916,10 @@
     <t xml:space="preserve">22 64</t>
   </si>
   <si>
-    <t xml:space="preserve">12 22</t>
+    <t xml:space="preserve">10 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 22</t>
   </si>
   <si>
     <t xml:space="preserve">16 30 </t>
@@ -624,6 +928,9 @@
     <t xml:space="preserve">18 28</t>
   </si>
   <si>
+    <t xml:space="preserve">14 42</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 35</t>
   </si>
   <si>
@@ -639,6 +946,9 @@
     <t xml:space="preserve">16 17</t>
   </si>
   <si>
+    <t xml:space="preserve">42 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">34 16</t>
   </si>
   <si>
@@ -648,6 +958,12 @@
     <t xml:space="preserve">24 6</t>
   </si>
   <si>
+    <t xml:space="preserve">30 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">29 6</t>
   </si>
   <si>
@@ -660,6 +976,9 @@
     <t xml:space="preserve">38 12</t>
   </si>
   <si>
+    <t xml:space="preserve">44 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">28 12</t>
   </si>
   <si>
@@ -669,9 +988,15 @@
     <t xml:space="preserve">14 30</t>
   </si>
   <si>
+    <t xml:space="preserve">28 22</t>
+  </si>
+  <si>
     <t xml:space="preserve">14 6</t>
   </si>
   <si>
+    <t xml:space="preserve">20 13</t>
+  </si>
+  <si>
     <t xml:space="preserve">38 14</t>
   </si>
   <si>
@@ -681,16 +1006,22 @@
     <t xml:space="preserve">50 26</t>
   </si>
   <si>
-    <t xml:space="preserve">44 12</t>
+    <t xml:space="preserve">20 19</t>
   </si>
   <si>
     <t xml:space="preserve">38 18</t>
   </si>
   <si>
+    <t xml:space="preserve">21 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 19</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 22</t>
   </si>
   <si>
-    <t xml:space="preserve">22 12</t>
+    <t xml:space="preserve">12 8</t>
   </si>
   <si>
     <t xml:space="preserve">16 14</t>
@@ -699,7 +1030,382 @@
     <t xml:space="preserve">8 18</t>
   </si>
   <si>
+    <t xml:space="preserve">0 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 36</t>
+  </si>
+  <si>
     <t xml:space="preserve">14 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canberra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canterbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cronulla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Queensland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penrith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 38</t>
   </si>
 </sst>
 </file>
@@ -805,13 +1511,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -852,23 +1558,32 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,195 +1591,348 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>58</v>
+      <c r="F16" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1083,13 +1951,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.52"/>
@@ -1112,398 +1980,567 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>114</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>131</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>94</v>
+        <v>141</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>101</v>
+      <c r="D6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>106</v>
+        <v>153</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>106</v>
+        <v>154</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>117</v>
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>166</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>122</v>
+        <v>168</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>128</v>
+        <v>177</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>131</v>
+        <v>179</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>184</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>132</v>
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>134</v>
+        <v>188</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>192</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>137</v>
+        <v>197</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>145</v>
+        <v>204</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>151</v>
+      <c r="O15" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1522,413 +2559,1441 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>241</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>169</v>
+        <v>245</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>170</v>
+        <v>247</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="J3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>178</v>
+        <v>253</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>180</v>
+        <v>256</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>230</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>184</v>
+        <v>261</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>186</v>
+        <v>269</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>232</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>190</v>
+        <v>276</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>191</v>
+        <v>282</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>234</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>235</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>11</v>
+        <v>296</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>206</v>
+        <v>298</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>209</v>
+        <v>235</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>142</v>
+        <v>303</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>214</v>
+        <v>287</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>149</v>
+        <v>237</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N17" activeCellId="0" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
